--- a/Data/SeenRx/SeenRx_CBU.xlsx
+++ b/Data/SeenRx/SeenRx_CBU.xlsx
@@ -14,165 +14,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>EMAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>LIPICON Seen Rx</t>
-  </si>
-  <si>
-    <t>AGLIP Seen Rx</t>
-  </si>
-  <si>
-    <t>CIFIBET Seen Rx</t>
-  </si>
-  <si>
-    <t>AMLEVO Seen Rx</t>
-  </si>
-  <si>
-    <t>CARDOBIS Seen Rx</t>
-  </si>
-  <si>
-    <t>RIVAROX Seen Rx</t>
-  </si>
-  <si>
-    <t>Noclog Seen Rx</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>CBU10</t>
+  </si>
+  <si>
+    <t>CBU11</t>
+  </si>
+  <si>
+    <t>CBU12</t>
+  </si>
+  <si>
+    <t>CBU13</t>
+  </si>
+  <si>
+    <t>CBU14</t>
+  </si>
+  <si>
+    <t>CBU15</t>
+  </si>
+  <si>
+    <t>CBU20</t>
+  </si>
+  <si>
+    <t>CBU21</t>
+  </si>
+  <si>
+    <t>CBU22</t>
+  </si>
+  <si>
+    <t>CBU23</t>
+  </si>
+  <si>
+    <t>CBU24</t>
+  </si>
+  <si>
+    <t>CBU25</t>
+  </si>
+  <si>
+    <t>CBU30</t>
+  </si>
+  <si>
+    <t>CBU31</t>
+  </si>
+  <si>
+    <t>CBU32</t>
+  </si>
+  <si>
+    <t>CBU33</t>
+  </si>
+  <si>
+    <t>CBU34</t>
+  </si>
+  <si>
+    <t>CBU35</t>
+  </si>
+  <si>
+    <t>CBU36</t>
+  </si>
+  <si>
+    <t>CBU40</t>
+  </si>
+  <si>
+    <t>CBU41</t>
+  </si>
+  <si>
+    <t>CBU42</t>
+  </si>
+  <si>
+    <t>CBU43</t>
+  </si>
+  <si>
+    <t>CBU44</t>
+  </si>
+  <si>
+    <t>CBU45</t>
+  </si>
+  <si>
+    <t>CBU46</t>
+  </si>
+  <si>
+    <t>CBU50</t>
+  </si>
+  <si>
+    <t>CBU51</t>
+  </si>
+  <si>
+    <t>CBU52</t>
+  </si>
+  <si>
+    <t>CBU53</t>
+  </si>
+  <si>
+    <t>CBU54</t>
+  </si>
+  <si>
+    <t>CBU55</t>
+  </si>
+  <si>
+    <t>CBU56</t>
+  </si>
+  <si>
+    <t>CBU60</t>
+  </si>
+  <si>
+    <t>CBU61</t>
+  </si>
+  <si>
+    <t>CBU62</t>
+  </si>
+  <si>
+    <t>CBU63</t>
+  </si>
+  <si>
+    <t>CBU64</t>
+  </si>
+  <si>
+    <t>CBU65</t>
+  </si>
+  <si>
+    <t>CBU66</t>
+  </si>
+  <si>
+    <t>CBU67</t>
   </si>
   <si>
     <t>CBU70</t>
   </si>
   <si>
-    <t>CBU30</t>
-  </si>
-  <si>
-    <t>CBU20</t>
-  </si>
-  <si>
-    <t>CBU10</t>
-  </si>
-  <si>
-    <t>CBU50</t>
-  </si>
-  <si>
-    <t>CBU60</t>
-  </si>
-  <si>
-    <t>CBU40</t>
-  </si>
-  <si>
-    <t>CBU25</t>
-  </si>
-  <si>
-    <t>CBU55</t>
-  </si>
-  <si>
-    <t>CBU62</t>
-  </si>
-  <si>
-    <t>CBU35</t>
-  </si>
-  <si>
-    <t>CBU23</t>
-  </si>
-  <si>
-    <t>CBU45</t>
-  </si>
-  <si>
-    <t>CBU44</t>
-  </si>
-  <si>
-    <t>CBU43</t>
-  </si>
-  <si>
-    <t>CBU15</t>
-  </si>
-  <si>
     <t>CBU71</t>
   </si>
   <si>
-    <t>CBU33</t>
-  </si>
-  <si>
-    <t>CBU21</t>
-  </si>
-  <si>
-    <t>CBU52</t>
+    <t>CBU72</t>
   </si>
   <si>
     <t>CBU73</t>
   </si>
   <si>
-    <t>CBU22</t>
-  </si>
-  <si>
-    <t>CBU63</t>
-  </si>
-  <si>
-    <t>CBU34</t>
+    <t>CBU74</t>
   </si>
   <si>
     <t>CBU75</t>
-  </si>
-  <si>
-    <t>CBU11</t>
-  </si>
-  <si>
-    <t>CBU67</t>
-  </si>
-  <si>
-    <t>CBU61</t>
-  </si>
-  <si>
-    <t>CBU36</t>
-  </si>
-  <si>
-    <t>CBU72</t>
-  </si>
-  <si>
-    <t>CBU13</t>
-  </si>
-  <si>
-    <t>CBU56</t>
-  </si>
-  <si>
-    <t>CBU53</t>
-  </si>
-  <si>
-    <t>CBU65</t>
-  </si>
-  <si>
-    <t>CBU32</t>
-  </si>
-  <si>
-    <t>CBU24</t>
-  </si>
-  <si>
-    <t>CBU41</t>
-  </si>
-  <si>
-    <t>CBU42</t>
-  </si>
-  <si>
-    <t>CBU12</t>
-  </si>
-  <si>
-    <t>CBU54</t>
-  </si>
-  <si>
-    <t>CBU74</t>
-  </si>
-  <si>
-    <t>CBU14</t>
-  </si>
-  <si>
-    <t>CBU31</t>
   </si>
 </sst>
 </file>
@@ -530,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,31 +588,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -605,31 +620,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>8</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -637,31 +652,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -669,31 +684,31 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>6</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -701,31 +716,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -733,31 +748,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -765,28 +780,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -797,31 +812,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -829,13 +844,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -844,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -853,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -864,28 +879,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -896,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -908,16 +923,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -925,10 +940,10 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -940,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -949,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -957,22 +972,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -981,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -989,31 +1004,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1024,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1039,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1056,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1071,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1085,7 +1100,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1097,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1117,31 +1132,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1149,22 +1164,22 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1173,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1187,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1213,31 +1228,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1245,13 +1260,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1263,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1277,25 +1292,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1309,16 +1324,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1327,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1341,13 +1356,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1356,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1373,10 +1388,10 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1388,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1411,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1420,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1437,31 +1452,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1475,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1487,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1501,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1513,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1522,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1533,7 +1548,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1545,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1568,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1580,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1597,31 +1612,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1632,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1641,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1661,31 +1676,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1696,28 +1711,28 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1725,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1740,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1757,31 +1772,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1795,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1821,13 +1836,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1836,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -1853,13 +1868,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1868,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1877,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1885,7 +1900,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1900,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1917,31 +1932,191 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>4</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SeenRx/SeenRx_CBU.xlsx
+++ b/Data/SeenRx/SeenRx_CBU.xlsx
@@ -588,31 +588,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,31 +620,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,31 +652,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -687,28 +687,28 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -748,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -812,31 +812,31 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
         <v>5</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -844,31 +844,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -882,25 +882,25 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,13 +908,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,13 +972,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1004,31 +1004,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1048,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -1068,10 +1068,10 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1089,10 +1089,10 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1103,19 +1103,19 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1132,13 +1132,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,28 +1228,28 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1260,31 +1260,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1292,31 +1292,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,13 +1324,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1356,10 +1356,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1388,13 +1388,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1420,31 +1420,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,10 +1452,10 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1464,16 +1464,16 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -1519,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1612,31 +1612,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1659,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1676,31 +1676,31 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
         <v>5</v>
       </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>7</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>6</v>
-      </c>
       <c r="J36">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1717,22 +1717,22 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,10 +1772,10 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1932,31 +1932,31 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <v>5</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>14</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1964,10 +1964,10 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1996,25 +1996,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2037,16 +2037,16 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2060,31 +2060,31 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2092,31 +2092,31 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SeenRx/SeenRx_CBU.xlsx
+++ b/Data/SeenRx/SeenRx_CBU.xlsx
@@ -588,31 +588,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -620,28 +620,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -652,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -684,31 +684,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -731,16 +731,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -812,31 +812,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
         <v>6</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -847,22 +847,22 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -879,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -926,13 +926,13 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -940,13 +940,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -972,13 +972,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1004,31 +1004,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
       <c r="G15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1039,10 +1039,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1068,10 +1068,10 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1103,28 +1103,28 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1228,13 +1228,13 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
         <v>17</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1243,16 +1243,16 @@
         <v>6</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,13 +1260,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1295,25 +1295,25 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1324,19 +1324,19 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1356,10 +1356,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1371,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1441,10 +1441,10 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1452,13 +1452,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1467,16 +1467,16 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1519,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1560,16 +1560,16 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1615,22 +1615,22 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1659,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1676,31 +1676,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <v>8</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1752,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1772,13 +1772,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1851,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1915,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1935,28 +1935,28 @@
         <v>11</v>
       </c>
       <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
         <v>7</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>7</v>
-      </c>
-      <c r="H44">
-        <v>8</v>
-      </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1964,13 +1964,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1996,10 +1996,10 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2028,7 +2028,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2098,16 +2098,16 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SeenRx/SeenRx_CBU.xlsx
+++ b/Data/SeenRx/SeenRx_CBU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>BEMPID</t>
+  </si>
+  <si>
+    <t>AROTIDE</t>
+  </si>
+  <si>
+    <t>FOBUNID</t>
   </si>
   <si>
     <t>CBU</t>
@@ -545,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,127 +591,163 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -710,208 +755,271 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -923,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -934,10 +1042,19 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -946,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -955,30 +1072,39 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -987,94 +1113,121 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1086,30 +1239,39 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1118,21 +1280,30 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1150,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1158,13 +1329,22 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1179,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1190,19 +1370,28 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1214,402 +1403,519 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>11</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="G22">
-        <v>9</v>
-      </c>
-      <c r="H22">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>6</v>
       </c>
-      <c r="I22">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1627,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1638,10 +1944,19 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1650,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1659,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1670,45 +1985,63 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1723,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1732,18 +2065,27 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1752,56 +2094,74 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1810,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1819,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1828,18 +2188,27 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1848,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1862,10 +2231,19 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1886,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1894,19 +2272,28 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1918,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1926,51 +2313,69 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>6</v>
       </c>
       <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>3</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
       <c r="H44">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1979,27 +2384,36 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2014,27 +2428,36 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2043,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2054,13 +2477,22 @@
       <c r="J47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2078,18 +2510,27 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2098,25 +2539,34 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
